--- a/list_5_r.xlsx
+++ b/list_5_r.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,14 @@
         <v>909603</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>935416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1254,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2066,6 +2074,14 @@
         <v>1166407</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1163391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2077,7 +2093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2889,6 +2905,14 @@
         <v>138340</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>140680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_5_r.xlsx
+++ b/list_5_r.xlsx
@@ -453,802 +453,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>551671</v>
+        <v>530095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>550603</v>
+        <v>551401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>530095</v>
+        <v>632490</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>551401</v>
+        <v>608729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>632490</v>
+        <v>614603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>608729</v>
+        <v>607150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>614603</v>
+        <v>612564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>607150</v>
+        <v>594279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>612564</v>
+        <v>567029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>594279</v>
+        <v>595066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>567029</v>
+        <v>666725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>595066</v>
+        <v>738498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>666725</v>
+        <v>736112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>738498</v>
+        <v>772375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>736112</v>
+        <v>754489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>772375</v>
+        <v>727763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>754489</v>
+        <v>667963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>727763</v>
+        <v>857753</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>667963</v>
+        <v>728596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>857753</v>
+        <v>683341</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>728596</v>
+        <v>666223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>683341</v>
+        <v>659486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>666223</v>
+        <v>683322</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>659486</v>
+        <v>713613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>683322</v>
+        <v>717660</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>713613</v>
+        <v>774386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>717660</v>
+        <v>763981</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>774386</v>
+        <v>742705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>763981</v>
+        <v>730797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>742705</v>
+        <v>704906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>730797</v>
+        <v>765919</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>704906</v>
+        <v>735348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>765919</v>
+        <v>748419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>735348</v>
+        <v>737263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>748419</v>
+        <v>673075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>737263</v>
+        <v>660247</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>673075</v>
+        <v>689488</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>660247</v>
+        <v>735149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>689488</v>
+        <v>718745</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>735149</v>
+        <v>703220</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>718745</v>
+        <v>727301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>703220</v>
+        <v>696612</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>727301</v>
+        <v>683141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>696612</v>
+        <v>676122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>683141</v>
+        <v>704334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>676122</v>
+        <v>789615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>704334</v>
+        <v>782772</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>789615</v>
+        <v>786526</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>782772</v>
+        <v>784153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>786526</v>
+        <v>772628</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>784153</v>
+        <v>765785</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>772628</v>
+        <v>769326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>765785</v>
+        <v>772344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>769326</v>
+        <v>740203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>772344</v>
+        <v>732496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>740203</v>
+        <v>862936</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>732496</v>
+        <v>880588</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>862936</v>
+        <v>884372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>880588</v>
+        <v>885154</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>884372</v>
+        <v>829747</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>885154</v>
+        <v>827460</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>829747</v>
+        <v>790137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>827460</v>
+        <v>771477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>790137</v>
+        <v>764594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>771477</v>
+        <v>756221</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>764594</v>
+        <v>751741</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>756221</v>
+        <v>763680</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>751741</v>
+        <v>764184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>763680</v>
+        <v>757421</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>764184</v>
+        <v>747359</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>757421</v>
+        <v>823158</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>747359</v>
+        <v>820177</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>823158</v>
+        <v>802672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>820177</v>
+        <v>737220</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>802672</v>
+        <v>698719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>737220</v>
+        <v>720665</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>698719</v>
+        <v>731985</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>720665</v>
+        <v>736963</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>731985</v>
+        <v>734378</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>736963</v>
+        <v>750203</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>734378</v>
+        <v>743413</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>750203</v>
+        <v>763477</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>743413</v>
+        <v>763831</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>763477</v>
+        <v>774801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>763831</v>
+        <v>765262</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>774801</v>
+        <v>794526</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>765262</v>
+        <v>801754</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>794526</v>
+        <v>819974</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>801754</v>
+        <v>839651</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>819974</v>
+        <v>829518</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>839651</v>
+        <v>814062</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>829518</v>
+        <v>821524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>814062</v>
+        <v>868686</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>821524</v>
+        <v>890956</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>868686</v>
+        <v>860849</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>890956</v>
+        <v>859989</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>860849</v>
+        <v>909603</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>859989</v>
+        <v>935416</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>909603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>935416</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1284,802 +1284,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>974155</v>
+        <v>1077964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>981503</v>
+        <v>1004781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>1077964</v>
+        <v>1091145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>1004781</v>
+        <v>1120374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1091145</v>
+        <v>1106980</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>1120374</v>
+        <v>1085269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1106980</v>
+        <v>1088640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1085269</v>
+        <v>1140283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>1088640</v>
+        <v>1126764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1140283</v>
+        <v>1352377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>1126764</v>
+        <v>1348261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1352377</v>
+        <v>1448046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1348261</v>
+        <v>1588306</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>1448046</v>
+        <v>1550991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1588306</v>
+        <v>1520413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1550991</v>
+        <v>1350530</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1520413</v>
+        <v>1338118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1350530</v>
+        <v>1340494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1338118</v>
+        <v>1358664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1340494</v>
+        <v>1315169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1358664</v>
+        <v>1310223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1315169</v>
+        <v>1320264</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1310223</v>
+        <v>1325922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1320264</v>
+        <v>1299233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1325922</v>
+        <v>1299465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1299233</v>
+        <v>1319167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1299465</v>
+        <v>1273259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1319167</v>
+        <v>1251596</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1273259</v>
+        <v>1215185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1251596</v>
+        <v>1211188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1215185</v>
+        <v>1202850</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1211188</v>
+        <v>1207909</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1202850</v>
+        <v>1225576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1207909</v>
+        <v>1201760</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1225576</v>
+        <v>1191049</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1201760</v>
+        <v>1176531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1191049</v>
+        <v>1237533</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1176531</v>
+        <v>1278456</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1237533</v>
+        <v>1220367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1278456</v>
+        <v>1226185</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1220367</v>
+        <v>1233585</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1226185</v>
+        <v>1149781</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1233585</v>
+        <v>1195642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1149781</v>
+        <v>1185116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1195642</v>
+        <v>1181709</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1185116</v>
+        <v>1241270</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1181709</v>
+        <v>1209028</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1241270</v>
+        <v>1211701</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1209028</v>
+        <v>1216822</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1211701</v>
+        <v>1236274</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1216822</v>
+        <v>1240533</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1236274</v>
+        <v>1236090</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1240533</v>
+        <v>1232545</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1236090</v>
+        <v>1190974</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1232545</v>
+        <v>1202720</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1190974</v>
+        <v>1203847</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1202720</v>
+        <v>1209156</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1203847</v>
+        <v>1197762</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1209156</v>
+        <v>1190687</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1197762</v>
+        <v>1219187</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1190687</v>
+        <v>1189348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1219187</v>
+        <v>1183173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1189348</v>
+        <v>1232826</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1183173</v>
+        <v>1186814</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1232826</v>
+        <v>1221185</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1186814</v>
+        <v>1215930</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1221185</v>
+        <v>1202345</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1215930</v>
+        <v>1166620</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1202345</v>
+        <v>1158668</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1166620</v>
+        <v>1140422</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1158668</v>
+        <v>1148644</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1140422</v>
+        <v>1120942</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1148644</v>
+        <v>1125457</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1120942</v>
+        <v>1119807</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1125457</v>
+        <v>1128056</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1119807</v>
+        <v>1074474</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1128056</v>
+        <v>1059849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1074474</v>
+        <v>1041242</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1059849</v>
+        <v>1045345</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1041242</v>
+        <v>1192803</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1045345</v>
+        <v>1141254</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1192803</v>
+        <v>1362961</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1141254</v>
+        <v>1315205</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1362961</v>
+        <v>1237672</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1315205</v>
+        <v>1195249</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1237672</v>
+        <v>1254838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1195249</v>
+        <v>1233049</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1254838</v>
+        <v>1201688</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1233049</v>
+        <v>1226213</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1201688</v>
+        <v>1239949</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1226213</v>
+        <v>1211701</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1239949</v>
+        <v>1209027</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1211701</v>
+        <v>1193198</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1209027</v>
+        <v>1210509</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1193198</v>
+        <v>1145741</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1210509</v>
+        <v>1161000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1145741</v>
+        <v>1166407</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1161000</v>
+        <v>1163391</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1166407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1163391</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2115,802 +2115,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>112504</v>
+        <v>111965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>108489</v>
+        <v>110674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>111965</v>
+        <v>113259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>110674</v>
+        <v>136009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>113259</v>
+        <v>149332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>136009</v>
+        <v>151128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>149332</v>
+        <v>139629</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>151128</v>
+        <v>142179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>139629</v>
+        <v>156496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>142179</v>
+        <v>153980</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>156496</v>
+        <v>136788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>153980</v>
+        <v>138056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>136788</v>
+        <v>150085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>138056</v>
+        <v>150370</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>150085</v>
+        <v>148818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>150370</v>
+        <v>137688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>148818</v>
+        <v>138326</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>137688</v>
+        <v>136983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>138326</v>
+        <v>139772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>136983</v>
+        <v>143850</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>139772</v>
+        <v>140060</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>143850</v>
+        <v>133880</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>140060</v>
+        <v>135648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>133880</v>
+        <v>131140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>135648</v>
+        <v>129437</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>131140</v>
+        <v>133083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>129437</v>
+        <v>133252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>133083</v>
+        <v>140031</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>133252</v>
+        <v>138281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>140031</v>
+        <v>106123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>138281</v>
+        <v>103529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>106123</v>
+        <v>104733</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>103529</v>
+        <v>101453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>104733</v>
+        <v>100773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>101453</v>
+        <v>102986</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>100773</v>
+        <v>105455</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>102986</v>
+        <v>114969</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>105455</v>
+        <v>114857</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>114969</v>
+        <v>116673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>114857</v>
+        <v>117239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>116673</v>
+        <v>118847</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>117239</v>
+        <v>117754</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>118847</v>
+        <v>119215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>117754</v>
+        <v>114239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>119215</v>
+        <v>115184</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>114239</v>
+        <v>115257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>115184</v>
+        <v>109373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>115257</v>
+        <v>107162</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>109373</v>
+        <v>101786</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>107162</v>
+        <v>102209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>101786</v>
+        <v>101547</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>102209</v>
+        <v>99867</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>101547</v>
+        <v>125672</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>99867</v>
+        <v>145097</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>125672</v>
+        <v>136146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>145097</v>
+        <v>123611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>136146</v>
+        <v>124454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>123611</v>
+        <v>121233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>124454</v>
+        <v>122423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>121233</v>
+        <v>125520</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>122423</v>
+        <v>124610</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>125520</v>
+        <v>132602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>124610</v>
+        <v>132152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>132602</v>
+        <v>129612</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>132152</v>
+        <v>128484</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>129612</v>
+        <v>126848</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>128484</v>
+        <v>123479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>126848</v>
+        <v>122506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>123479</v>
+        <v>121450</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>122506</v>
+        <v>159833</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>121450</v>
+        <v>193573</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>159833</v>
+        <v>275644</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>193573</v>
+        <v>251631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>275644</v>
+        <v>247919</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>251631</v>
+        <v>254852</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>247919</v>
+        <v>249835</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>254852</v>
+        <v>236584</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>249835</v>
+        <v>231143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>236584</v>
+        <v>227592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>231143</v>
+        <v>213903</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>227592</v>
+        <v>205966</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>213903</v>
+        <v>196486</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>205966</v>
+        <v>189820</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>196486</v>
+        <v>190541</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>189820</v>
+        <v>182163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>190541</v>
+        <v>176864</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>182163</v>
+        <v>165078</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>176864</v>
+        <v>154419</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>165078</v>
+        <v>157265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>154419</v>
+        <v>157390</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>157265</v>
+        <v>157981</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>157390</v>
+        <v>159476</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>157981</v>
+        <v>154618</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>159476</v>
+        <v>139320</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>154618</v>
+        <v>137279</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>139320</v>
+        <v>137004</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>137279</v>
+        <v>138340</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>137004</v>
+        <v>140680</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>138340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>140680</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_5_r.xlsx
+++ b/list_5_r.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,7 +1240,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>988877</v>
       </c>
     </row>
     <row r="101">
@@ -1248,6 +1248,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>887895</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1262,7 +1270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +2079,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1218200</v>
       </c>
     </row>
     <row r="101">
@@ -2079,6 +2087,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1155008</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2093,7 +2109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2902,7 +2918,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>138423</v>
       </c>
     </row>
     <row r="101">
@@ -2910,6 +2926,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>135307</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_5_r.xlsx
+++ b/list_5_r.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="카카오" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NAVER" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="농심" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="엔씨소프트" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1256,7 +1257,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>907245</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2096,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1218569</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +2935,838 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>133299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B2" t="n">
+        <v>238435</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B3" t="n">
+        <v>222317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B4" t="n">
+        <v>230747</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B5" t="n">
+        <v>246193</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B6" t="n">
+        <v>239688</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B7" t="n">
+        <v>228116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B8" t="n">
+        <v>207376</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B9" t="n">
+        <v>190968</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B10" t="n">
+        <v>203281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B11" t="n">
+        <v>202253</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B12" t="n">
+        <v>202386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B13" t="n">
+        <v>209947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B14" t="n">
+        <v>229712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B15" t="n">
+        <v>224680</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B16" t="n">
+        <v>218573</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B17" t="n">
+        <v>215967</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B18" t="n">
+        <v>241113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B19" t="n">
+        <v>238839</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B20" t="n">
+        <v>231088</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B21" t="n">
+        <v>231925</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B22" t="n">
+        <v>228365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225516</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B24" t="n">
+        <v>229737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B25" t="n">
+        <v>221487</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B26" t="n">
+        <v>217107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B27" t="n">
+        <v>211999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B28" t="n">
+        <v>207021</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B29" t="n">
+        <v>203436</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B30" t="n">
+        <v>199907</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B31" t="n">
+        <v>189508</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B32" t="n">
+        <v>187853</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B33" t="n">
+        <v>187857</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B34" t="n">
+        <v>186974</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B35" t="n">
+        <v>180848</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B36" t="n">
+        <v>175173</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B37" t="n">
+        <v>176543</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B38" t="n">
+        <v>177515</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B39" t="n">
+        <v>176417</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B40" t="n">
+        <v>176869</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B41" t="n">
+        <v>176244</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B42" t="n">
+        <v>172367</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B43" t="n">
+        <v>175285</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B44" t="n">
+        <v>170676</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B45" t="n">
+        <v>170379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B46" t="n">
+        <v>176947</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B47" t="n">
+        <v>169810</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B48" t="n">
+        <v>170676</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B49" t="n">
+        <v>190667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B50" t="n">
+        <v>182984</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B51" t="n">
+        <v>180445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B52" t="n">
+        <v>177598</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B53" t="n">
+        <v>177443</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B54" t="n">
+        <v>155446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B55" t="n">
+        <v>151034</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B56" t="n">
+        <v>150635</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B57" t="n">
+        <v>148620</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B58" t="n">
+        <v>153811</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B59" t="n">
+        <v>153866</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B60" t="n">
+        <v>156356</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B61" t="n">
+        <v>152070</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B62" t="n">
+        <v>143037</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B63" t="n">
+        <v>134727</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B64" t="n">
+        <v>135908</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B65" t="n">
+        <v>138895</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B66" t="n">
+        <v>141594</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B67" t="n">
+        <v>140875</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B68" t="n">
+        <v>142650</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B69" t="n">
+        <v>141613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B70" t="n">
+        <v>143263</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B71" t="n">
+        <v>157283</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B72" t="n">
+        <v>165318</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B73" t="n">
+        <v>156274</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B74" t="n">
+        <v>159388</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B75" t="n">
+        <v>155312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B76" t="n">
+        <v>150070</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B77" t="n">
+        <v>149094</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B78" t="n">
+        <v>153255</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B79" t="n">
+        <v>154674</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B80" t="n">
+        <v>148853</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B81" t="n">
+        <v>144719</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B82" t="n">
+        <v>152822</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B83" t="n">
+        <v>148536</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B84" t="n">
+        <v>150724</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B85" t="n">
+        <v>157413</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B86" t="n">
+        <v>155847</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B87" t="n">
+        <v>153259</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B88" t="n">
+        <v>154221</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B89" t="n">
+        <v>154194</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B90" t="n">
+        <v>160835</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B91" t="n">
+        <v>153166</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B92" t="n">
+        <v>157008</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B93" t="n">
+        <v>153394</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B94" t="n">
+        <v>145025</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B95" t="n">
+        <v>142547</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B96" t="n">
+        <v>142344</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B97" t="n">
+        <v>149794</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B98" t="n">
+        <v>153619</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B99" t="n">
+        <v>156093</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B100" t="n">
+        <v>157826</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B101" t="n">
+        <v>156380</v>
       </c>
     </row>
   </sheetData>
